--- a/essentials/Map2.xlsx
+++ b/essentials/Map2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levin\Documents\school - uclll\Semester 2\Querrying\repository\dbr01_g08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levin\Documents\school - uclll\Semester 2\Querrying\repository\dbr01_g08\essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9491B-4DFA-43DB-BD99-AE62CF9091EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAD717-2883-4F9D-B763-E344671F44AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>datum</t>
   </si>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +445,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
